--- a/MigrationTool/MigrationTool/Images/Users.xlsx
+++ b/MigrationTool/MigrationTool/Images/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rajesh\Projects\MigrationTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB22B3-30EA-4EB8-9E53-16EF97AE1035}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362F37F8-8AB6-4AAF-9C7B-A4002C0C2675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FirstName</t>
   </si>
@@ -48,22 +48,13 @@
     <t>Admin</t>
   </si>
   <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>Admin1</t>
-  </si>
-  <si>
-    <t>Rajesh1</t>
-  </si>
-  <si>
-    <t>rjaini@vmware.com1</t>
+    <t>CreatedDate</t>
   </si>
   <si>
     <t>UserId</t>
   </si>
   <si>
-    <t>CreatedDate</t>
+    <t>rjaini@vmware.com</t>
   </si>
 </sst>
 </file>
@@ -395,21 +386,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -430,37 +421,34 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="2">
-        <v>44147</v>
+        <v>44146</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{9AA87805-FC46-434B-84EE-646C242F1790}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>